--- a/Test Data/TC_221_Verify_Cable_Capacitance_Based_On_Max_Allowed_IS_Units_for_Non_Split_Loops.xlsx
+++ b/Test Data/TC_221_Verify_Cable_Capacitance_Based_On_Max_Allowed_IS_Units_for_Non_Split_Loops.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B7555-0D91-4997-BD99-000A64934241}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFAF04A-77CD-472E-A239-EE4914665AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="26">
   <si>
     <t>Color Codes</t>
   </si>
@@ -103,6 +106,12 @@
   </si>
   <si>
     <t>NGC-548/TC-221</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A Intrinsically-safe Units</t>
+  </si>
+  <si>
+    <t>Instrinsically Safe Unit Details</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,6 +220,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +504,375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
+        <v>62</v>
+      </c>
+      <c r="H9" s="4">
+        <v>40</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4">
+        <v>40</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4">
+        <v>40</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4">
+        <v>40</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4">
+        <v>40</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53D51C1-A237-40C3-A37B-0F1EB8C5B34F}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,6 +1203,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>